--- a/biology/Botanique/Chaetomorpha_melagonium/Chaetomorpha_melagonium.xlsx
+++ b/biology/Botanique/Chaetomorpha_melagonium/Chaetomorpha_melagonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaetomorpha melagonium est une espèce d'algues vertes de la famille des Cladophoraceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Aspect</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue se présente sous forme de filaments de couleur vert sombre. Ces filaments, isolés ou disposés en petits groupe, peuvent mesurer jusqu'à 20 cm de longueur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue se présente sous forme de filaments de couleur vert sombre. Ces filaments, isolés ou disposés en petits groupe, peuvent mesurer jusqu'à 20 cm de longueur.
 Très ressemblante à Chaetomorpha aerea, les différences ne sont visibles qu'au niveau microscopique ; mais Chaetomorpha aerea est un peu moins sombre, moins raide, et ses filaments sont en moyenne deux fois moins épais.
 </t>
         </is>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chaetomorpha melagonium pousse dans l'étage infralittoral, généralement dans les zones agitées battues par les vagues. Elle pousse très souvent en compagnie d'algues rouges, notamment celles du genre Phymatolithon[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaetomorpha melagonium pousse dans l'étage infralittoral, généralement dans les zones agitées battues par les vagues. Elle pousse très souvent en compagnie d'algues rouges, notamment celles du genre Phymatolithon.
 </t>
         </is>
       </c>
@@ -602,8 +620,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le terme "chaetomorpha" signifie, en grec ancien, "en forme de poil raide". Le terme "melagonium" vient aussi du grec ancien et signifie "sombre et anguleux"[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme "chaetomorpha" signifie, en grec ancien, "en forme de poil raide". Le terme "melagonium" vient aussi du grec ancien et signifie "sombre et anguleux".
 </t>
         </is>
       </c>
